--- a/Phase 1/Sprint1/Sprint Backlog.xlsx
+++ b/Phase 1/Sprint1/Sprint Backlog.xlsx
@@ -537,11 +537,9 @@
         <v>10</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
       <c r="G6" s="6"/>
       <c r="H6" s="9"/>
       <c r="I6" s="6"/>
@@ -1601,24 +1599,25 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B10:C10"/>
@@ -1636,7 +1635,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Phase 1/Sprint1/Sprint Backlog.xlsx
+++ b/Phase 1/Sprint1/Sprint Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TODO</t>
   </si>
@@ -30,36 +30,49 @@
     <t>Done</t>
   </si>
   <si>
+    <t>Done By:</t>
+  </si>
+  <si>
     <t>Identify 3 patterns and
- three code smells (id 1)</t>
+ three code smells (id 1)
+Reviews: Guilherme /
+Pedro Fernandes / Pedro Lopes</t>
   </si>
   <si>
     <t>Rafael Martins</t>
   </si>
   <si>
     <t>Identify 3 patterns and
- three code smells (id 2)</t>
+ three code smells (id 2)
+Reviews: Rafael Martins / 
+Pedro Fernandes / Pedro Lopes</t>
   </si>
   <si>
     <t>Rafael Pereira</t>
   </si>
   <si>
     <t>Identify 3 patterns and
- three code smells (id 3)</t>
+ three code smells (id 3)
+Reviews: Rafael Pereira /
+Pedro Fernandes / Pedro Lopes</t>
   </si>
   <si>
     <t>Guilherme</t>
   </si>
   <si>
     <t>Identify 3 patterns and
- three code smells (id 4)</t>
+ three code smells (id 4)
+Reviews: Guilherme /
+Rafael Martins / Rafael Pereira</t>
   </si>
   <si>
     <t>Pedro Fernandes</t>
   </si>
   <si>
     <t>Identify 3 patterns and
- three code smells (id 5)</t>
+ three code smells (id 5)
+Reviews: Guilherme /
+Rafael Martins / Rafael Pereira</t>
   </si>
   <si>
     <t>Pedro Lopes</t>
@@ -132,25 +145,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border/>
     <border>
-      <left/>
       <top/>
-      <bottom/>
     </border>
     <border>
       <right/>
       <top/>
-      <bottom/>
     </border>
     <border>
       <left/>
       <top/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -175,16 +208,31 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -195,46 +243,70 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="8" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -451,15 +523,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="14.29"/>
     <col customWidth="1" min="3" max="3" width="16.29"/>
     <col customWidth="1" min="4" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="17.57"/>
     <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="16.29"/>
-    <col customWidth="1" min="8" max="11" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="20.86"/>
+    <col customWidth="1" min="10" max="11" width="8.71"/>
     <col customWidth="1" min="12" max="12" width="17.86"/>
-    <col customWidth="1" min="13" max="26" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="8.71"/>
+    <col customWidth="1" min="14" max="14" width="16.86"/>
+    <col customWidth="1" min="15" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -471,138 +548,119 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" ht="60.0" customHeight="1">
+      <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6"/>
-      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="29.25" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6"/>
+      <c r="N3" s="11" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="4" ht="60.0" customHeight="1">
+      <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="6"/>
-      <c r="L4" s="12" t="s">
-        <v>7</v>
+      <c r="N4" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="27.0" customHeight="1">
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="L5" s="14" t="s">
+    <row r="5" ht="60.0" customHeight="1">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="27.75" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="N5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="F6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="16" t="s">
+    </row>
+    <row r="6" ht="60.0" customHeight="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="F6" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="28.5" customHeight="1">
-      <c r="B7" s="5" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="16"/>
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="6"/>
-      <c r="L7" s="18" t="s">
+    </row>
+    <row r="7" ht="60.0" customHeight="1">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24"/>
+      <c r="N7" s="27" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" ht="27.75" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
+    <row r="8" ht="60.0" customHeight="1">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
     </row>
-    <row r="9" ht="28.5" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
+    <row r="9" ht="60.0" customHeight="1">
+      <c r="D9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
+    <row r="10" ht="60.0" customHeight="1">
+      <c r="D10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
+    <row r="11" ht="60.0" customHeight="1">
+      <c r="D11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -1595,46 +1653,46 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Phase 1/Sprint1/Sprint Backlog.xlsx
+++ b/Phase 1/Sprint1/Sprint Backlog.xlsx
@@ -30,7 +30,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Done By:</t>
+    <t>Done By</t>
   </si>
   <si>
     <t>Identify 3 patterns and
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -255,13 +255,12 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -271,13 +270,8 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,9 +286,6 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,10 +520,10 @@
     <col customWidth="1" min="4" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="17.57"/>
     <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="7" max="7" width="16.29"/>
     <col customWidth="1" min="8" max="8" width="8.71"/>
     <col customWidth="1" min="9" max="9" width="20.86"/>
-    <col customWidth="1" min="10" max="11" width="8.71"/>
+    <col customWidth="1" min="10" max="11" width="16.86"/>
     <col customWidth="1" min="12" max="12" width="17.86"/>
     <col customWidth="1" min="13" max="13" width="8.71"/>
     <col customWidth="1" min="14" max="14" width="16.86"/>
@@ -566,101 +557,99 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6"/>
-      <c r="N3" s="11" t="s">
+      <c r="I3" s="9"/>
+      <c r="N3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="60.0" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
       <c r="I4" s="6"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="60.0" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="16"/>
-      <c r="N5" s="20" t="s">
+      <c r="I5" s="13"/>
+      <c r="N5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="60.0" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="16"/>
-      <c r="N6" s="22" t="s">
+      <c r="I6" s="13"/>
+      <c r="N6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="60.0" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="24"/>
-      <c r="N7" s="27" t="s">
+      <c r="I7" s="22"/>
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="60.0" customHeight="1">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" ht="60.0" customHeight="1">
-      <c r="D9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" ht="60.0" customHeight="1">
-      <c r="D10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" ht="60.0" customHeight="1">
-      <c r="D11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -1653,22 +1642,20 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="D10:E10"/>
@@ -1685,14 +1672,16 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
